--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1073,8 +1073,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44585</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1150,15 +1150,19 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44596</v>
+      </c>
+      <c r="G5" s="8">
+        <v>40000</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,11 +1174,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,11 +1190,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,11 +1206,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,11 +1222,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,11 +1238,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,11 +1254,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,11 +1270,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,11 +1286,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,11 +1302,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,11 +1318,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,11 +1334,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,11 +1350,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,11 +1366,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,11 +1382,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,11 +1398,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,11 +1414,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,11 +1430,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,11 +1446,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1462,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1478,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1494,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1510,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1526,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1542,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1558,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1574,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1590,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1606,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,11 +1623,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44593</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1652,7 +1656,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1675,7 +1679,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>38988</v>
+        <v>-1012</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>CUSTOMER NAME - NOOR</t>
+  </si>
+  <si>
+    <t>insureance</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1143,42 +1146,44 @@
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>44551</v>
+        <v>44621</v>
       </c>
       <c r="B5" s="8">
-        <v>38988</v>
+        <v>167131</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44596</v>
-      </c>
+      <c r="F5" s="7"/>
       <c r="G5" s="8">
-        <v>40000</v>
+        <v>890</v>
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-1012</v>
+        <v>166241</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8">
+        <v>400</v>
+      </c>
       <c r="C6" s="50"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1190,11 +1195,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1206,11 +1211,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1222,11 +1227,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1238,11 +1243,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,11 +1259,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1270,11 +1275,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1286,11 +1291,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,11 +1307,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1318,11 +1323,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1334,11 +1339,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1350,11 +1355,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1366,11 +1371,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,11 +1387,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,11 +1403,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,11 +1419,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,11 +1435,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,11 +1451,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,11 +1467,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,11 +1483,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,11 +1499,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,11 +1515,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,11 +1531,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,11 +1547,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,11 +1563,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,11 +1579,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,11 +1595,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,11 +1611,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,11 +1628,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44596</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1648,7 +1653,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>38988</v>
+        <v>167531</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1656,7 +1661,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>40000</v>
+        <v>890</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1679,7 +1684,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>-1012</v>
+        <v>166641</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1163,7 +1163,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1159,11 +1159,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>166241</v>
+        <v>66241</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1175,15 +1175,19 @@
       <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44673</v>
+      </c>
+      <c r="G6" s="8">
+        <v>100000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1195,11 +1199,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1211,11 +1215,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1227,11 +1231,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1243,11 +1247,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1259,11 +1263,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1275,11 +1279,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1291,11 +1295,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1307,11 +1311,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1323,11 +1327,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1339,11 +1343,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1355,11 +1359,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1371,11 +1375,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1387,11 +1391,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1403,11 +1407,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1419,11 +1423,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1435,11 +1439,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1451,11 +1455,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1467,11 +1471,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1483,11 +1487,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1499,11 +1503,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1515,11 +1519,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1531,11 +1535,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1547,11 +1551,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1563,11 +1567,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1579,11 +1583,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1595,11 +1599,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1611,11 +1615,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1628,11 +1632,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44645</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1661,7 +1665,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>890</v>
+        <v>100890</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1684,7 +1688,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>166641</v>
+        <v>66641</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1146,80 +1146,82 @@
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>44621</v>
+        <v>44681</v>
       </c>
       <c r="B5" s="8">
-        <v>167131</v>
+        <v>39980</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="8">
-        <v>890</v>
-      </c>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>66241</v>
+        <v>39980</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
+      <c r="A6" s="7">
+        <v>44681</v>
+      </c>
       <c r="B6" s="8">
-        <v>400</v>
+        <v>19320</v>
       </c>
       <c r="C6" s="50"/>
-      <c r="D6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="7">
-        <v>44673</v>
-      </c>
-      <c r="G6" s="8">
-        <v>100000</v>
-      </c>
+      <c r="D6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>66641</v>
+        <v>59300</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44674</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="49">
+        <v>44682</v>
+      </c>
+      <c r="B7" s="16">
+        <v>61740</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>66641</v>
+        <v>121040</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44674</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="B8" s="16">
+        <v>200</v>
+      </c>
       <c r="C8" s="19"/>
-      <c r="D8" s="18"/>
+      <c r="D8" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1231,11 +1233,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1247,11 +1249,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1263,11 +1265,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1279,11 +1281,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1295,11 +1297,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1311,11 +1313,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1327,11 +1329,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1343,11 +1345,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1359,11 +1361,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1375,11 +1377,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1391,11 +1393,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1407,11 +1409,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1423,11 +1425,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1439,11 +1441,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1455,11 +1457,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1471,11 +1473,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1487,11 +1489,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1503,11 +1505,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1519,11 +1521,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1535,11 +1537,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1551,11 +1553,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1567,11 +1569,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1583,11 +1585,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1599,11 +1601,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1617,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1632,11 +1634,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44674</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1657,7 +1659,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>167531</v>
+        <v>121240</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1665,7 +1667,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>100890</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1688,7 +1690,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>66641</v>
+        <v>121240</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1161,7 +1161,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1154,14 +1154,16 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="8">
+        <v>100000</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>39980</v>
+        <v>-81260</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1174,14 +1176,16 @@
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="8">
+        <v>1240</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>59300</v>
+        <v>-61940</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1194,14 +1198,16 @@
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="G7" s="16">
+        <v>20000</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>121040</v>
+        <v>-200</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1217,11 +1223,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,11 +1239,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,11 +1255,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,11 +1271,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,11 +1287,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1297,11 +1303,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1313,11 +1319,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,11 +1335,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,11 +1351,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,11 +1367,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1383,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,11 +1399,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,11 +1415,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1431,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1447,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,11 +1463,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1479,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,11 +1495,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,11 +1511,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1527,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,11 +1543,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,11 +1559,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,11 +1575,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,11 +1591,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,11 +1607,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,11 +1623,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,11 +1640,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44713</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1667,7 +1673,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>121240</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1690,7 +1696,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>121240</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -54,7 +54,7 @@
     <t>CUSTOMER NAME - NOOR</t>
   </si>
   <si>
-    <t>insureance</t>
+    <t>gs</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1146,88 +1146,76 @@
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>44681</v>
+        <v>44733</v>
       </c>
       <c r="B5" s="8">
-        <v>39980</v>
+        <v>61757</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G5" s="8">
-        <v>100000</v>
+        <v>492</v>
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-81260</v>
+        <v>61265</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>44681</v>
-      </c>
+      <c r="A6" s="7"/>
       <c r="B6" s="8">
-        <v>19320</v>
+        <v>200</v>
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="8">
-        <v>1240</v>
-      </c>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-61940</v>
+        <v>61465</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>51</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>44682</v>
-      </c>
-      <c r="B7" s="16">
-        <v>61740</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49"/>
-      <c r="G7" s="16">
-        <v>20000</v>
-      </c>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-200</v>
+        <v>61465</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>50</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="16">
-        <v>200</v>
-      </c>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D8" s="18"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1239,11 +1227,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1255,11 +1243,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1271,11 +1259,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1287,11 +1275,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1303,11 +1291,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1319,11 +1307,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1335,11 +1323,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1351,11 +1339,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1367,11 +1355,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1383,11 +1371,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1399,11 +1387,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1415,11 +1403,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1431,11 +1419,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1447,11 +1435,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1463,11 +1451,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1479,11 +1467,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1495,11 +1483,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1511,11 +1499,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1527,11 +1515,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1543,11 +1531,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1559,11 +1547,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1575,11 +1563,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1591,11 +1579,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1607,11 +1595,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,11 +1611,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1640,11 +1628,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44732</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1665,7 +1653,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>121240</v>
+        <v>61957</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1673,7 +1661,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>121240</v>
+        <v>492</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1696,7 +1684,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>61465</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection sqref="A1:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>61265</v>
+        <v>45045</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1175,15 +1175,19 @@
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44755</v>
+      </c>
+      <c r="G6" s="8">
+        <v>16220</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1195,11 +1199,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1211,11 +1215,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1227,11 +1231,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1243,11 +1247,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1259,11 +1263,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1275,11 +1279,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1291,11 +1295,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1307,11 +1311,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1323,11 +1327,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1339,11 +1343,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1355,11 +1359,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1371,11 +1375,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1387,11 +1391,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1403,11 +1407,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1419,11 +1423,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1435,11 +1439,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1451,11 +1455,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1467,11 +1471,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1483,11 +1487,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1499,11 +1503,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1515,11 +1519,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1531,11 +1535,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1547,11 +1551,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1563,11 +1567,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1579,11 +1583,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1595,11 +1599,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1611,11 +1615,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1628,11 +1632,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44753</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1661,7 +1665,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>492</v>
+        <v>16712</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1684,7 +1688,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>61465</v>
+        <v>45245</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -54,7 +54,7 @@
     <t>CUSTOMER NAME - NOOR</t>
   </si>
   <si>
-    <t>gs</t>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I38"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1146,48 +1146,46 @@
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>44733</v>
+        <v>44769</v>
       </c>
       <c r="B5" s="8">
-        <v>61757</v>
+        <v>96062</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
+      <c r="F5" s="7">
+        <v>44791</v>
       </c>
       <c r="G5" s="8">
-        <v>492</v>
+        <v>30508</v>
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>45045</v>
+        <v>65554</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="C6" s="50"/>
-      <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44755</v>
-      </c>
-      <c r="G6" s="8">
-        <v>16220</v>
-      </c>
+      <c r="D6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1199,11 +1197,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1215,11 +1213,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1231,11 +1229,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1247,11 +1245,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1263,11 +1261,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1279,11 +1277,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1295,11 +1293,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1311,11 +1309,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1327,11 +1325,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1343,11 +1341,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1359,11 +1357,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1375,11 +1373,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1391,11 +1389,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1407,11 +1405,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1423,11 +1421,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1439,11 +1437,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1455,11 +1453,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1471,11 +1469,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1487,11 +1485,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1503,11 +1501,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1519,11 +1517,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1535,11 +1533,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1551,11 +1549,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1567,11 +1565,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1583,11 +1581,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1599,11 +1597,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1613,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1632,11 +1630,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1657,7 +1655,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>61957</v>
+        <v>96312</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1665,7 +1663,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>16712</v>
+        <v>30508</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1688,7 +1686,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>45245</v>
+        <v>65804</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>65554</v>
+        <v>15554</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,15 +1177,19 @@
       <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44800</v>
+      </c>
+      <c r="G6" s="8">
+        <v>50000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1197,11 +1201,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1213,11 +1217,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1229,11 +1233,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1245,11 +1249,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,11 +1265,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1277,11 +1281,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1293,11 +1297,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,11 +1313,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1325,11 +1329,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,11 +1345,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,11 +1361,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,11 +1377,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,11 +1393,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,11 +1409,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,11 +1425,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,11 +1441,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,11 +1457,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,11 +1473,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,11 +1489,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,11 +1505,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,11 +1521,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,11 +1537,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,11 +1553,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,11 +1569,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,11 +1585,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1601,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1617,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,11 +1634,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1663,7 +1667,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>30508</v>
+        <v>80508</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1686,7 +1690,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>65804</v>
+        <v>15804</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>CUSTOMER NAME - NOOR</t>
-  </si>
-  <si>
-    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="A5" sqref="A5:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,51 +1142,35 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44769</v>
-      </c>
-      <c r="B5" s="8">
-        <v>96062</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44791</v>
-      </c>
-      <c r="G5" s="8">
-        <v>30508</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>15554</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>31</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8">
-        <v>250</v>
-      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
-      <c r="D6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="7">
-        <v>44800</v>
-      </c>
-      <c r="G6" s="8">
-        <v>50000</v>
-      </c>
+      <c r="D6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1201,11 +1182,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1217,11 +1198,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,11 +1214,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,11 +1230,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,11 +1246,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,11 +1262,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1297,11 +1278,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1313,11 +1294,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,11 +1310,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,11 +1326,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,11 +1342,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1358,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,11 +1374,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,11 +1390,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1406,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1422,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,11 +1438,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1454,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,11 +1470,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,11 +1486,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1502,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,11 +1518,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,11 +1534,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,11 +1550,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,11 +1566,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,11 +1582,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,11 +1598,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,11 +1615,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1659,7 +1640,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>96312</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1667,7 +1648,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>80508</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1690,7 +1671,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>15804</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>CUSTOMER NAME - NOOR</t>
+  </si>
+  <si>
+    <t>4 CARTOON</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G9"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,35 +1145,47 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>44804</v>
+      </c>
+      <c r="B5" s="8">
+        <v>73042</v>
+      </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7">
+        <v>44824</v>
+      </c>
+      <c r="G5" s="8">
+        <v>22799</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>50243</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44806</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8">
+        <v>200</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1197,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1198,11 +1213,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,11 +1229,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1245,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1261,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1277,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1278,11 +1293,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,11 +1309,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1325,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1341,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1357,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1373,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1389,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1405,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1421,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1437,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1453,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1469,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1485,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1501,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1517,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1533,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1549,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1565,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1581,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1597,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1613,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1630,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1640,7 +1655,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>73242</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1648,7 +1663,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>22799</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1671,7 +1686,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>50443</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1076,8 +1076,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I38" sqref="A1:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -16,22 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>BILL AMOUNT</t>
-  </si>
-  <si>
-    <t>TRP</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>PAYMENT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>BALANCE IN BILL</t>
   </si>
@@ -54,7 +39,19 @@
     <t>CUSTOMER NAME - NOOR</t>
   </si>
   <si>
-    <t>4 CARTOON</t>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>BILL AMOUNT</t>
+  </si>
+  <si>
+    <t>TRP</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>PAYMENT</t>
   </si>
 </sst>
 </file>
@@ -1076,8 +1073,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I38" sqref="A1:I38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1095,12 +1092,12 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="E1" s="34" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="41" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1120,72 +1117,60 @@
     </row>
     <row r="4" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44804</v>
-      </c>
-      <c r="B5" s="8">
-        <v>73042</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7">
-        <v>44824</v>
-      </c>
-      <c r="G5" s="8">
-        <v>22799</v>
-      </c>
+      <c r="D5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>50243</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>25</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8">
-        <v>200</v>
-      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1197,11 +1182,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1213,11 +1198,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1229,11 +1214,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1245,11 +1230,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,11 +1246,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1277,11 +1262,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1293,11 +1278,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,11 +1294,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1325,11 +1310,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,11 +1326,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,11 +1342,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,11 +1358,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,11 +1374,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,11 +1390,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,11 +1406,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,11 +1422,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,11 +1438,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,11 +1454,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,11 +1470,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,11 +1486,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,11 +1502,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,11 +1518,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,11 +1534,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,11 +1550,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,11 +1566,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1582,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1598,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,24 +1615,24 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
       <c r="A35" s="38"/>
       <c r="B35" s="26" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="28"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="26" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I35" s="36"/>
     </row>
@@ -1655,7 +1640,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>73242</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1663,7 +1648,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>22799</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1682,11 +1667,11 @@
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
       <c r="D38" s="35" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>50443</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>BALANCE IN BILL</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>PAYMENT</t>
+  </si>
+  <si>
+    <t>2 CARTOON</t>
+  </si>
+  <si>
+    <t>INSURANCE</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,67 +1148,85 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>44832</v>
+      </c>
+      <c r="B5" s="8">
+        <v>31412</v>
+      </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>31412</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44838</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8">
+        <v>100</v>
+      </c>
       <c r="C6" s="50"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>31512</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="49">
+        <v>44831</v>
+      </c>
+      <c r="B7" s="16">
+        <v>9555</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>41067</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44838</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="B8" s="16">
+        <v>50</v>
+      </c>
       <c r="C8" s="19"/>
-      <c r="D8" s="18"/>
+      <c r="D8" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,11 +1238,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1254,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1270,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1286,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1278,11 +1302,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,11 +1318,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1334,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1350,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1366,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1382,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1398,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1414,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1430,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1446,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1462,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1478,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1494,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1510,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1526,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1542,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1558,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1574,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1590,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1606,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1622,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1639,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1640,7 +1664,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1671,7 +1695,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>41117</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1077,10 +1077,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1096,12 +1096,12 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:14">
       <c r="E1" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:14" ht="15.75">
       <c r="A2" s="41" t="s">
         <v>6</v>
       </c>
@@ -1112,7 +1112,7 @@
       <c r="F2" s="42"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1">
+    <row r="3" spans="1:14" ht="16.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1121,7 +1121,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="5" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
         <v>44832</v>
       </c>
@@ -1159,17 +1159,19 @@
         <v>12</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="8">
+        <v>15581</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>31412</v>
+        <v>15831</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>100</v>
@@ -1182,14 +1184,14 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>31512</v>
+        <v>15931</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44842</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+        <v>44863</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49">
         <v>44831</v>
       </c>
@@ -1202,14 +1204,14 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>41067</v>
+        <v>25486</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
       <c r="B8" s="16">
         <v>50</v>
@@ -1222,14 +1224,17 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44842</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44863</v>
+      </c>
+      <c r="N8">
+        <v>15581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="52"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
@@ -1238,14 +1243,14 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44842</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="52"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -1254,14 +1259,17 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44863</v>
+      </c>
+      <c r="N10">
+        <v>63870</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="52"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
@@ -1270,14 +1278,14 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44863</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="52"/>
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
@@ -1286,14 +1294,14 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+        <v>44863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="52"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -1302,14 +1310,14 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44863</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="52"/>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
@@ -1318,14 +1326,14 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44863</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="52"/>
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
@@ -1334,14 +1342,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44863</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="52"/>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
@@ -1350,11 +1358,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1366,11 +1374,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,11 +1390,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,11 +1406,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,11 +1422,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,11 +1438,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44842</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,11 +1454,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,11 +1470,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,11 +1486,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,11 +1502,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,11 +1518,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,11 +1534,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,11 +1550,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,11 +1566,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,11 +1582,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,11 +1598,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,11 +1614,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,11 +1630,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1639,11 +1647,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44842</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1672,7 +1680,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>15581</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1695,7 +1703,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>41117</v>
+        <v>25536</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>BALANCE IN BILL</t>
   </si>
@@ -52,12 +52,6 @@
   </si>
   <si>
     <t>PAYMENT</t>
-  </si>
-  <si>
-    <t>2 CARTOON</t>
-  </si>
-  <si>
-    <t>INSURANCE</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1074,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A5" sqref="A5:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1148,87 +1142,67 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44832</v>
-      </c>
-      <c r="B5" s="8">
-        <v>31412</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="D5" s="9"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="8">
-        <v>15581</v>
-      </c>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>15831</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>31</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8">
-        <v>100</v>
-      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
-      <c r="D6" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>15931</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44863</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>44831</v>
-      </c>
-      <c r="B7" s="16">
-        <v>9555</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>25486</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>32</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="16">
-        <v>50</v>
-      </c>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="18" t="s">
-        <v>13</v>
-      </c>
+      <c r="D8" s="18"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44863</v>
+        <v>44879</v>
       </c>
       <c r="N8">
         <v>15581</v>
@@ -1243,11 +1217,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44863</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1259,11 +1233,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44879</v>
       </c>
       <c r="N10">
         <v>63870</v>
@@ -1278,11 +1252,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,11 +1268,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1310,11 +1284,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1300,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1316,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,14 +1332,14 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="52"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
@@ -1374,14 +1348,14 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="52"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
@@ -1390,14 +1364,14 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="52"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
@@ -1406,14 +1380,14 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="52"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
@@ -1422,14 +1396,14 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="52"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
@@ -1438,14 +1412,14 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44863</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="52"/>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
@@ -1454,14 +1428,14 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="52"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
@@ -1470,14 +1444,14 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="52"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
@@ -1486,14 +1460,14 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A25" s="52"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
@@ -1502,14 +1476,14 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="52"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
@@ -1518,14 +1492,14 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="52"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
@@ -1534,14 +1508,14 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="52"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
@@ -1550,14 +1524,14 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A29" s="52"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
@@ -1566,14 +1540,18 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44879</v>
+      </c>
+      <c r="N29">
+        <f>E38-48285</f>
+        <v>-48285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="52"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
@@ -1582,14 +1560,14 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="52"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
@@ -1598,14 +1576,14 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A32" s="52"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -1614,11 +1592,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,11 +1608,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1647,11 +1625,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44863</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1672,7 +1650,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>41117</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1680,7 +1658,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>15581</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1703,7 +1681,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>25536</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1090,12 +1090,12 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:9">
       <c r="E1" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="41" t="s">
         <v>6</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="F2" s="42"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="16.5" thickBot="1">
+    <row r="3" spans="1:9" ht="16.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1115,7 +1115,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1141,74 +1141,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+    <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A5" s="7">
+        <v>44877</v>
+      </c>
+      <c r="B5" s="8">
+        <v>46228</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>46228</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44879</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8">
+        <v>100</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>46328</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44879</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A7" s="49">
+        <v>44877</v>
+      </c>
+      <c r="B7" s="16">
+        <v>31060</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>77388</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44879</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="B8" s="16">
+        <v>100</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44879</v>
-      </c>
-      <c r="N8">
-        <v>15581</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="52"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
@@ -1217,14 +1226,14 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44879</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="52"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -1233,17 +1242,14 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
-      </c>
-      <c r="N10">
-        <v>63870</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="52"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
@@ -1252,14 +1258,14 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="52"/>
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
@@ -1268,14 +1274,14 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="52"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -1284,14 +1290,14 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="52"/>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
@@ -1300,14 +1306,14 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="52"/>
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
@@ -1316,14 +1322,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="52"/>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
@@ -1332,11 +1338,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1348,11 +1354,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1364,11 +1370,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1380,11 +1386,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1396,11 +1402,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1412,11 +1418,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,11 +1434,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1444,11 +1450,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1460,11 +1466,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1476,11 +1482,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1492,11 +1498,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1508,11 +1514,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1524,11 +1530,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1540,15 +1546,15 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
       <c r="N29">
         <f>E38-48285</f>
-        <v>-48285</v>
+        <v>29203</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1560,11 +1566,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1576,11 +1582,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1592,11 +1598,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1608,11 +1614,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,11 +1631,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1650,7 +1656,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1681,7 +1687,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>77488</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,79 +1142,67 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44877</v>
-      </c>
-      <c r="B5" s="8">
-        <v>46228</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>46228</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>10</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8">
-        <v>100</v>
-      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>46328</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>44877</v>
-      </c>
-      <c r="B7" s="16">
-        <v>31060</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>77388</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>10</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="16">
-        <v>100</v>
-      </c>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1226,11 +1214,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1242,11 +1230,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1258,11 +1246,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1274,11 +1262,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1290,11 +1278,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1306,11 +1294,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1322,11 +1310,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1338,11 +1326,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1354,11 +1342,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1370,11 +1358,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1386,11 +1374,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,11 +1390,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1418,11 +1406,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1434,11 +1422,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1450,11 +1438,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1466,11 +1454,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1482,11 +1470,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1498,11 +1486,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1514,11 +1502,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1530,11 +1518,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1546,15 +1534,15 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
       <c r="N29">
         <f>E38-48285</f>
-        <v>29203</v>
+        <v>-48285</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1554,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1570,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1586,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1614,11 +1602,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1631,11 +1619,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1656,7 +1644,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1687,7 +1675,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>77488</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>BALANCE IN BILL</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>PAYMENT</t>
+  </si>
+  <si>
+    <t>GR TEDDY</t>
+  </si>
+  <si>
+    <t>NOVICE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1080,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,35 +1148,47 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>44907</v>
+      </c>
+      <c r="B5" s="8">
+        <v>86909</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1350</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>85559</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44915</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8">
+        <v>4441</v>
+      </c>
       <c r="C6" s="50"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1200,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1198,11 +1216,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,11 +1232,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1248,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1264,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1280,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1278,11 +1296,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,11 +1312,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1328,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1344,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1360,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1376,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1392,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1408,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1424,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1440,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1456,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1472,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1488,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1504,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1520,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1536,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,15 +1552,15 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44921</v>
       </c>
       <c r="N29">
         <f>E38-48285</f>
-        <v>-48285</v>
+        <v>41715</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1572,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1588,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1604,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1620,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,11 +1637,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1644,7 +1662,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>91350</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1652,7 +1670,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1675,7 +1693,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>BALANCE IN BILL</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>GR TEDDY</t>
-  </si>
-  <si>
-    <t>NOVICE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1077,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1168,27 +1165,23 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8">
-        <v>4441</v>
-      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
-      <c r="D6" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1200,11 +1193,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1216,11 +1209,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1232,11 +1225,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1248,11 +1241,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1264,11 +1257,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1280,11 +1273,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1296,11 +1289,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,11 +1305,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1328,11 +1321,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1344,11 +1337,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1360,11 +1353,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1376,11 +1369,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1392,11 +1385,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,11 +1401,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1424,11 +1417,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1440,11 +1433,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,11 +1449,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,11 +1465,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,11 +1481,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,11 +1497,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1520,11 +1513,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1536,11 +1529,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,15 +1545,15 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44921</v>
+        <v>44928</v>
       </c>
       <c r="N29">
         <f>E38-48285</f>
-        <v>41715</v>
+        <v>37274</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1572,11 +1565,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1588,11 +1581,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
@@ -1604,11 +1597,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1620,11 +1613,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1637,11 +1630,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44921</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1662,7 +1655,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>91350</v>
+        <v>86909</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1693,7 +1686,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>90000</v>
+        <v>85559</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1074,10 +1074,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,27 +1161,33 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>85559</v>
+        <v>-1600</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8">
+        <v>250</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44930</v>
+      </c>
+      <c r="G6" s="8">
+        <v>49023</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44928</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,15 +1195,19 @@
       <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44936</v>
+      </c>
+      <c r="G7" s="16">
+        <v>38136</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44928</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1209,11 +1219,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44928</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,11 +1235,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44928</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,11 +1251,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,11 +1267,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,11 +1283,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1289,11 +1299,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,11 +1315,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,11 +1331,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,14 +1347,14 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="52"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
@@ -1353,14 +1363,14 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="52"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
@@ -1369,14 +1379,14 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="52"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
@@ -1385,14 +1395,14 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="52"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
@@ -1401,14 +1411,14 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="52"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
@@ -1417,14 +1427,14 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44928</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="52"/>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
@@ -1433,14 +1443,14 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="52"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
@@ -1449,14 +1459,14 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="52"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
@@ -1465,14 +1475,14 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A25" s="52"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
@@ -1481,14 +1491,14 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="52"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
@@ -1497,14 +1507,14 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="52"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
@@ -1513,14 +1523,14 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="52"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
@@ -1529,14 +1539,14 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A29" s="52"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
@@ -1545,18 +1555,14 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
-      </c>
-      <c r="N29">
-        <f>E38-48285</f>
-        <v>37274</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="52"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
@@ -1565,14 +1571,14 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="52"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
@@ -1581,14 +1587,14 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A32" s="52"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -1597,11 +1603,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1619,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,11 +1636,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44928</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1655,7 +1661,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>86909</v>
+        <v>87159</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1663,7 +1669,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>1350</v>
+        <v>88509</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1686,7 +1692,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>85559</v>
+        <v>-1350</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>BALANCE IN BILL</t>
   </si>
@@ -54,7 +54,10 @@
     <t>PAYMENT</t>
   </si>
   <si>
-    <t>GR TEDDY</t>
+    <t>INSURANCE</t>
+  </si>
+  <si>
+    <t>for bhivand to mumbai</t>
   </si>
 </sst>
 </file>
@@ -1074,10 +1077,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1093,12 +1096,12 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="E1" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:13" ht="15.75">
       <c r="A2" s="41" t="s">
         <v>6</v>
       </c>
@@ -1109,7 +1112,7 @@
       <c r="F2" s="42"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1118,7 +1121,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1144,73 +1147,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="5" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>44907</v>
+        <v>44939</v>
       </c>
       <c r="B5" s="8">
-        <v>86909</v>
+        <v>130546</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1350</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-1600</v>
+        <v>130546</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="C6" s="50"/>
-      <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44930</v>
-      </c>
-      <c r="G6" s="8">
-        <v>49023</v>
-      </c>
+      <c r="D6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-1350</v>
+        <v>130896</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44942</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+        <v>44957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="B7" s="16">
+        <v>320</v>
+      </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="51"/>
-      <c r="F7" s="49">
-        <v>44936</v>
-      </c>
-      <c r="G7" s="16">
-        <v>38136</v>
-      </c>
+      <c r="D7" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44942</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="19"/>
@@ -1219,14 +1216,17 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44942</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44957</v>
+      </c>
+      <c r="M8">
+        <v>131252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="52"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
@@ -1235,14 +1235,18 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44942</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44957</v>
+      </c>
+      <c r="M9">
+        <f>E38-M8</f>
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="52"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -1251,14 +1255,14 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="52"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
@@ -1267,14 +1271,14 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44957</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="52"/>
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
@@ -1283,14 +1287,14 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+        <v>44957</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="52"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -1299,14 +1303,14 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44957</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="52"/>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
@@ -1315,14 +1319,14 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="52"/>
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
@@ -1331,14 +1335,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44957</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="52"/>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
@@ -1347,11 +1351,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1363,11 +1367,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1379,11 +1383,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1395,11 +1399,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1411,11 +1415,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1427,11 +1431,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44942</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1443,11 +1447,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1459,11 +1463,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1475,11 +1479,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1491,11 +1495,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1507,11 +1511,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1523,11 +1527,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1539,11 +1543,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1555,11 +1559,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1571,11 +1575,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1587,11 +1591,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1603,11 +1607,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,11 +1623,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1636,11 +1640,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44942</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1661,7 +1665,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>87159</v>
+        <v>131216</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1669,7 +1673,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>88509</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1692,7 +1696,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>-1350</v>
+        <v>131216</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1156,11 +1156,15 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44957</v>
+      </c>
+      <c r="G5" s="8">
+        <v>50000</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>130546</v>
+        <v>80546</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
@@ -1180,7 +1184,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>130896</v>
+        <v>80896</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
@@ -1200,7 +1204,7 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
@@ -1216,7 +1220,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
@@ -1235,7 +1239,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
@@ -1243,7 +1247,7 @@
       </c>
       <c r="M9">
         <f>E38-M8</f>
-        <v>-36</v>
+        <v>-50036</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1255,7 +1259,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1271,7 +1275,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1287,7 +1291,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1303,7 +1307,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1319,7 +1323,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1335,7 +1339,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1351,7 +1355,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1367,7 +1371,7 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1383,7 +1387,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1399,7 +1403,7 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1415,7 +1419,7 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1431,7 +1435,7 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
@@ -1447,7 +1451,7 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1463,7 +1467,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1479,7 +1483,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1495,7 +1499,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1511,7 +1515,7 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1527,7 +1531,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1543,7 +1547,7 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1559,7 +1563,7 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1575,7 +1579,7 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1591,7 +1595,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1607,7 +1611,7 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1623,7 +1627,7 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1640,7 +1644,7 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
@@ -1673,7 +1677,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1696,7 +1700,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>131216</v>
+        <v>81216</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44957</v>
+        <v>44959</v>
       </c>
       <c r="M8">
         <v>131252</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44957</v>
+        <v>44959</v>
       </c>
       <c r="M9">
         <f>E38-M8</f>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1164,11 +1164,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>80546</v>
+        <v>42588</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1180,15 +1180,19 @@
       <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44965</v>
+      </c>
+      <c r="G6" s="8">
+        <v>37958</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>80896</v>
+        <v>42938</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1204,11 +1208,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1220,11 +1224,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44959</v>
+        <v>44965</v>
       </c>
       <c r="M8">
         <v>131252</v>
@@ -1239,15 +1243,15 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44959</v>
+        <v>44965</v>
       </c>
       <c r="M9">
         <f>E38-M8</f>
-        <v>-50036</v>
+        <v>-87994</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1259,11 +1263,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1275,11 +1279,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1291,11 +1295,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1307,11 +1311,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1323,11 +1327,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1339,11 +1343,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1355,11 +1359,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1371,11 +1375,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1387,11 +1391,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1403,11 +1407,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1419,11 +1423,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1435,11 +1439,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1451,11 +1455,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1467,11 +1471,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1483,11 +1487,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1499,11 +1503,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1515,11 +1519,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1531,11 +1535,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1547,11 +1551,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1563,11 +1567,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1579,11 +1583,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1595,11 +1599,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1611,11 +1615,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1627,11 +1631,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1644,11 +1648,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44959</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1677,7 +1681,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>50000</v>
+        <v>87958</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1700,7 +1704,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>81216</v>
+        <v>43258</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,11 +1164,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>42588</v>
+        <v>4630</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>42938</v>
+        <v>4980</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
@@ -1204,15 +1204,19 @@
       <c r="D7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44968</v>
+      </c>
+      <c r="G7" s="16">
+        <v>37958</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1224,11 +1228,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44965</v>
+        <v>44970</v>
       </c>
       <c r="M8">
         <v>131252</v>
@@ -1243,15 +1247,15 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44965</v>
+        <v>44970</v>
       </c>
       <c r="M9">
         <f>E38-M8</f>
-        <v>-87994</v>
+        <v>-125952</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1263,11 +1267,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1279,11 +1283,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1295,11 +1299,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1311,11 +1315,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1327,11 +1331,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1343,11 +1347,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1359,11 +1363,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1375,11 +1379,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1391,11 +1395,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1407,11 +1411,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1423,11 +1427,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1439,11 +1443,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1455,11 +1459,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1471,11 +1475,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1487,11 +1491,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1503,11 +1507,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1519,11 +1523,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1535,11 +1539,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1551,11 +1555,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1567,11 +1571,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1583,11 +1587,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1599,11 +1603,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1619,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1631,11 +1635,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1648,11 +1652,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44965</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1681,7 +1685,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>87958</v>
+        <v>125916</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1704,7 +1708,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>43258</v>
+        <v>5300</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>BALANCE IN BILL</t>
   </si>
@@ -52,12 +52,6 @@
   </si>
   <si>
     <t>PAYMENT</t>
-  </si>
-  <si>
-    <t>INSURANCE</t>
-  </si>
-  <si>
-    <t>for bhivand to mumbai</t>
   </si>
 </sst>
 </file>
@@ -1077,10 +1071,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I38"/>
+      <selection activeCell="M7" sqref="M7:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1096,12 +1090,12 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="E1" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="41" t="s">
         <v>6</v>
       </c>
@@ -1112,7 +1106,7 @@
       <c r="F2" s="42"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" thickBot="1">
+    <row r="3" spans="1:9" ht="16.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1121,7 +1115,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1147,79 +1141,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44939</v>
-      </c>
-      <c r="B5" s="8">
-        <v>130546</v>
-      </c>
+    <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44957</v>
-      </c>
-      <c r="G5" s="8">
-        <v>50000</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>4630</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
+        <v>44975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8">
-        <v>350</v>
-      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
-      <c r="D6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="7">
-        <v>44965</v>
-      </c>
-      <c r="G6" s="8">
-        <v>37958</v>
-      </c>
+      <c r="D6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>4980</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44970</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="17.25" thickTop="1" thickBot="1">
+        <v>44975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49"/>
-      <c r="B7" s="16">
-        <v>320</v>
-      </c>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="49">
-        <v>44968</v>
-      </c>
-      <c r="G7" s="16">
-        <v>37958</v>
-      </c>
+      <c r="D7" s="51"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44970</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+        <v>44975</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="19"/>
@@ -1228,17 +1198,14 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44970</v>
-      </c>
-      <c r="M8">
-        <v>131252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+        <v>44975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="52"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
@@ -1247,18 +1214,14 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44970</v>
-      </c>
-      <c r="M9">
-        <f>E38-M8</f>
-        <v>-125952</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+        <v>44975</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="52"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -1267,14 +1230,14 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+        <v>44975</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="52"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
@@ -1283,14 +1246,14 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+        <v>44975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="52"/>
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
@@ -1299,14 +1262,14 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+        <v>44975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="52"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -1315,14 +1278,14 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+        <v>44975</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="52"/>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
@@ -1331,14 +1294,14 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+        <v>44975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="52"/>
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
@@ -1347,14 +1310,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+        <v>44975</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="52"/>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
@@ -1363,11 +1326,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1379,11 +1342,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1395,11 +1358,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1411,11 +1374,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1427,11 +1390,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1443,11 +1406,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1459,11 +1422,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1475,11 +1438,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1491,11 +1454,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1507,11 +1470,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1523,11 +1486,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1539,11 +1502,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1555,11 +1518,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1571,11 +1534,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1587,11 +1550,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1603,11 +1566,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,11 +1582,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1635,11 +1598,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1652,11 +1615,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1677,7 +1640,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>131216</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1685,7 +1648,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>125916</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1708,7 +1671,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:M12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,19 +1142,23 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>44984</v>
+      </c>
+      <c r="B5" s="8">
+        <v>199191</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1166,11 +1170,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1186,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1198,11 +1202,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,11 +1218,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1234,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1250,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1266,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1278,11 +1282,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,11 +1298,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1314,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1330,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1346,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1362,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1378,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1394,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1410,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1426,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1442,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1458,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1474,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1490,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1506,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1522,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1538,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1554,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1570,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1586,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1602,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1619,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1640,7 +1644,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1671,7 +1675,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>199191</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1151,14 +1151,16 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="8">
+        <v>102726</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1167,14 +1169,16 @@
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="8">
+        <v>50000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,11 +1190,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,11 +1206,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,11 +1222,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,11 +1238,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,11 +1254,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,11 +1270,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,11 +1286,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,11 +1302,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,11 +1318,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,11 +1334,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,11 +1350,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,11 +1366,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,11 +1382,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,11 +1398,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,11 +1414,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,11 +1430,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,11 +1446,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1462,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1478,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1494,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1510,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1526,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1542,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1558,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1574,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1590,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1606,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,11 +1623,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1652,7 +1656,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>152726</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1675,7 +1679,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>199191</v>
+        <v>46465</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1156,11 +1156,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1168,17 +1168,19 @@
       <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7">
+        <v>44996</v>
+      </c>
       <c r="G6" s="8">
         <v>50000</v>
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,15 +1188,19 @@
       <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44998</v>
+      </c>
+      <c r="G7" s="16">
+        <v>40000</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1206,11 +1212,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1222,11 +1228,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1238,11 +1244,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,11 +1260,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1270,11 +1276,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1286,11 +1292,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,11 +1308,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1318,11 +1324,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1334,11 +1340,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1350,11 +1356,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1366,11 +1372,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,11 +1388,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,11 +1404,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,11 +1420,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,11 +1436,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,11 +1452,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,11 +1468,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,11 +1484,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,11 +1500,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,11 +1516,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,11 +1532,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,11 +1548,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,11 +1564,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,11 +1580,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,11 +1596,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,11 +1612,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,11 +1629,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1656,7 +1662,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>152726</v>
+        <v>192726</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1679,7 +1685,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>46465</v>
+        <v>6465</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1073,8 +1073,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1150,17 +1150,19 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7">
+        <v>44996</v>
+      </c>
       <c r="G5" s="8">
-        <v>102726</v>
+        <v>50000</v>
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1168,19 +1170,19 @@
       <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44996</v>
-      </c>
-      <c r="G6" s="8">
-        <v>50000</v>
+      <c r="F6" s="49">
+        <v>44998</v>
+      </c>
+      <c r="G6" s="16">
+        <v>40000</v>
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1188,19 +1190,17 @@
       <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49">
-        <v>44998</v>
-      </c>
+      <c r="F7" s="15"/>
       <c r="G7" s="16">
-        <v>40000</v>
+        <v>41356</v>
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1209,14 +1209,16 @@
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="G8" s="16">
+        <v>23822</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1228,11 +1230,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1244,11 +1246,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1260,11 +1262,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1276,11 +1278,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1292,11 +1294,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1308,11 +1310,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1324,11 +1326,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1340,11 +1342,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1356,11 +1358,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1372,11 +1374,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1388,11 +1390,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,11 +1406,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1420,11 +1422,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1436,11 +1438,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,11 +1454,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1468,11 +1470,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1484,11 +1486,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1500,11 +1502,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1516,11 +1518,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1532,11 +1534,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1548,11 +1550,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1564,11 +1566,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1580,11 +1582,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,11 +1598,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1612,11 +1614,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1629,11 +1631,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44998</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1662,7 +1664,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>192726</v>
+        <v>155178</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1685,7 +1687,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>6465</v>
+        <v>44013</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
@@ -2040,7 +2042,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.95" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="76" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <webPublishItems count="1">
     <webPublishItem id="16596" divId="MEMO BIG_16596" sourceType="sheet" destinationFile="E:\UPDATE\WEBSITE\2084377289testbysam\IMPORTANT\SAGAR UNCLE.htm" autoRepublish="1"/>
   </webPublishItems>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1073,8 +1073,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection sqref="A1:I38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1143,26 +1143,22 @@
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>44984</v>
+        <v>45002</v>
       </c>
       <c r="B5" s="8">
-        <v>199191</v>
+        <v>134695</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44996</v>
-      </c>
-      <c r="G5" s="8">
-        <v>50000</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,19 +1166,15 @@
       <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="49">
-        <v>44998</v>
-      </c>
-      <c r="G6" s="16">
-        <v>40000</v>
-      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1191,16 +1183,14 @@
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="16">
-        <v>41356</v>
-      </c>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1209,16 +1199,14 @@
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="16">
-        <v>23822</v>
-      </c>
+      <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1218,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1234,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1250,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1278,11 +1266,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1294,11 +1282,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1298,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1314,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1330,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1346,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1362,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1378,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1394,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1410,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1426,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1442,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1458,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1474,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1490,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1506,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1522,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1538,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1554,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1570,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1586,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1614,11 +1602,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1631,11 +1619,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45000</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1656,7 +1644,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>199191</v>
+        <v>134695</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1664,7 +1652,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>155178</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1687,7 +1675,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>44013</v>
+        <v>134695</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,55 +1158,61 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8">
+        <v>100</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="49"/>
       <c r="G6" s="16"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>134695</v>
+        <v>134795</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="B7" s="16">
+        <v>160</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>134695</v>
+        <v>134955</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="B8" s="16">
+        <v>350</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,11 +1224,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,11 +1240,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,11 +1256,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,11 +1272,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,11 +1288,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,11 +1304,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,11 +1320,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,11 +1336,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,11 +1352,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,11 +1368,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,11 +1384,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,11 +1400,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,11 +1416,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,11 +1432,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,11 +1448,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1464,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1480,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1496,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1512,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1528,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1544,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1560,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1576,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1592,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1608,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,11 +1625,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1644,7 +1650,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1675,7 +1681,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>134695</v>
+        <v>135305</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection sqref="A1:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1150,15 +1150,19 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>45022</v>
+      </c>
+      <c r="G5" s="8">
+        <v>61786</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>134695</v>
+        <v>11700</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1168,15 +1172,19 @@
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="16"/>
+      <c r="F6" s="49">
+        <v>45028</v>
+      </c>
+      <c r="G6" s="16">
+        <v>61209</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>134795</v>
+        <v>11800</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1190,11 +1198,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>134955</v>
+        <v>11960</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1208,27 +1216,31 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>135305</v>
+        <v>12310</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="52">
+        <v>45017</v>
+      </c>
+      <c r="B9" s="13">
+        <v>320</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45020</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1240,11 +1252,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1256,11 +1268,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1272,11 +1284,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1288,11 +1300,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1304,11 +1316,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1320,11 +1332,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1336,11 +1348,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1352,11 +1364,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1368,11 +1380,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1384,11 +1396,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1400,11 +1412,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1416,11 +1428,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,11 +1444,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1448,11 +1460,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1464,11 +1476,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,11 +1492,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1496,11 +1508,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1512,11 +1524,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,11 +1540,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1544,11 +1556,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1560,11 +1572,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1576,11 +1588,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1592,11 +1604,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1608,11 +1620,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,11 +1637,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1650,7 +1662,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>135305</v>
+        <v>135625</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1658,7 +1670,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>122995</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1681,7 +1693,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>135305</v>
+        <v>12630</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I38"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,12 +1142,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>45002</v>
-      </c>
-      <c r="B5" s="8">
-        <v>134695</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7">
@@ -1158,18 +1154,16 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>11700</v>
+        <v>-122995</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>26</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8">
-        <v>100</v>
-      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="49">
@@ -1180,67 +1174,59 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>11800</v>
+        <v>-122995</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49"/>
-      <c r="B7" s="16">
-        <v>160</v>
-      </c>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>11960</v>
+        <v>-122995</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="16">
-        <v>350</v>
-      </c>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>12310</v>
+        <v>-122995</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="52">
-        <v>45017</v>
-      </c>
-      <c r="B9" s="13">
-        <v>320</v>
-      </c>
+      <c r="A9" s="52"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>11</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1252,11 +1238,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1268,11 +1254,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1284,11 +1270,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1300,11 +1286,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1316,11 +1302,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1332,11 +1318,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1348,11 +1334,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1364,11 +1350,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1380,11 +1366,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1396,11 +1382,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1412,11 +1398,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,11 +1414,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1444,11 +1430,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1460,11 +1446,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1476,11 +1462,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1492,11 +1478,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1508,11 +1494,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1524,11 +1510,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1540,11 +1526,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1556,11 +1542,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1572,11 +1558,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1588,11 +1574,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1604,11 +1590,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1620,11 +1606,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1637,11 +1623,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1662,7 +1648,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>135625</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1693,7 +1679,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>12630</v>
+        <v>-122995</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,23 +1142,27 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>45029</v>
+      </c>
+      <c r="B5" s="8">
+        <v>55110</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7">
-        <v>45022</v>
+        <v>45044</v>
       </c>
       <c r="G5" s="8">
-        <v>61786</v>
+        <v>44036</v>
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45042</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1166,19 +1170,15 @@
       <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="49">
-        <v>45028</v>
-      </c>
-      <c r="G6" s="16">
-        <v>61209</v>
-      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1190,11 +1190,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1206,11 +1206,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1222,11 +1222,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1238,11 +1238,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,11 +1254,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1270,11 +1270,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1286,11 +1286,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,11 +1302,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1318,11 +1318,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1334,11 +1334,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1350,11 +1350,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1366,11 +1366,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,11 +1382,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,11 +1398,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,11 +1414,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,11 +1430,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,11 +1446,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,11 +1462,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,11 +1478,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,11 +1494,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,11 +1510,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,11 +1526,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,11 +1542,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,11 +1558,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,11 +1574,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,11 +1590,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,11 +1606,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,11 +1623,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45042</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1648,7 +1648,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>55110</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1656,7 +1656,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>122995</v>
+        <v>44036</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>-122995</v>
+        <v>11074</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A5" sqref="A5:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,27 +1142,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>45029</v>
-      </c>
-      <c r="B5" s="8">
-        <v>55110</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>45044</v>
-      </c>
-      <c r="G5" s="8">
-        <v>44036</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>15</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1174,11 +1166,11 @@
       <c r="G6" s="16"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1190,11 +1182,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1206,11 +1198,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1222,11 +1214,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1238,11 +1230,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,11 +1246,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1270,11 +1262,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1286,11 +1278,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,11 +1294,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1318,11 +1310,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1334,11 +1326,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1350,11 +1342,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1366,11 +1358,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,11 +1374,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,11 +1390,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,11 +1406,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,11 +1422,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,11 +1438,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,11 +1454,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,11 +1470,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,11 +1486,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,11 +1502,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,11 +1518,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,11 +1534,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,11 +1550,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,11 +1566,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,11 +1582,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,11 +1598,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,11 +1615,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45044</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1648,7 +1640,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>55110</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1656,7 +1648,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>44036</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1679,7 +1671,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>11074</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,35 +1142,47 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>45066</v>
+      </c>
+      <c r="B5" s="8">
+        <v>143830</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>45090</v>
+      </c>
+      <c r="G5" s="8">
+        <v>50000</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>93830</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45066</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="7">
+        <v>45087</v>
+      </c>
+      <c r="B6" s="8">
+        <v>27386</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="49"/>
       <c r="G6" s="16"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45066</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1194,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1198,11 +1210,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,11 +1226,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1242,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1258,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1274,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1278,11 +1290,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,11 +1306,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1322,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1338,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1354,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1370,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1386,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1402,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1418,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1434,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1450,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1466,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1482,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1498,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1514,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1530,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1546,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1562,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1578,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1594,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1610,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1627,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1640,7 +1652,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>171216</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1648,7 +1660,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1671,7 +1683,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>121216</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1162,7 +1162,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45091</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>BALANCE IN BILL</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>PAYMENT</t>
+  </si>
+  <si>
+    <t>packing / insurance</t>
+  </si>
+  <si>
+    <t>paytm</t>
   </si>
 </sst>
 </file>
@@ -1071,10 +1077,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1090,12 +1096,12 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="E1" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="41" t="s">
         <v>6</v>
       </c>
@@ -1106,7 +1112,7 @@
       <c r="F2" s="42"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1">
+    <row r="3" spans="1:10" ht="16.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1115,7 +1121,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1141,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="5" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
         <v>45066</v>
       </c>
@@ -1158,14 +1164,14 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>93830</v>
+        <v>87940</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7">
         <v>45087</v>
       </c>
@@ -1174,34 +1180,49 @@
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="16"/>
+      <c r="F6" s="49">
+        <v>45090</v>
+      </c>
+      <c r="G6" s="16">
+        <v>5890</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>121216</v>
+        <v>115326</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="51"/>
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A7" s="49">
+        <v>45090</v>
+      </c>
+      <c r="B7" s="16">
+        <v>20740</v>
+      </c>
+      <c r="C7" s="9">
+        <v>200</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45095</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="19"/>
@@ -1210,14 +1231,14 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45095</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="52"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
@@ -1226,14 +1247,14 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45095</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="52"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -1242,14 +1263,14 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45095</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="52"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
@@ -1258,14 +1279,14 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45095</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="52"/>
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
@@ -1274,14 +1295,14 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45095</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+        <v>45098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="52"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -1290,14 +1311,14 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45095</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="52"/>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
@@ -1306,14 +1327,14 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45095</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="52"/>
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
@@ -1322,14 +1343,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45095</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="52"/>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
@@ -1338,11 +1359,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45095</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1354,11 +1375,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45095</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1370,11 +1391,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45095</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1386,11 +1407,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45095</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,11 +1423,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45095</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1418,11 +1439,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45095</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1434,11 +1455,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45095</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1450,11 +1471,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45095</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1466,11 +1487,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45095</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1482,11 +1503,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45095</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1498,11 +1519,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45095</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1514,11 +1535,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45095</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1530,11 +1551,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45095</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1546,11 +1567,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45095</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1562,11 +1583,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45095</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1578,11 +1599,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45095</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1594,11 +1615,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45095</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1610,11 +1631,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45095</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1627,11 +1648,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45095</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1652,7 +1673,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>171216</v>
+        <v>192156</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1660,7 +1681,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>50000</v>
+        <v>55890</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1683,7 +1704,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>121216</v>
+        <v>136266</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1079,8 +1079,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection sqref="A1:I38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,11 +1164,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>87940</v>
+        <v>-42060</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>115326</v>
+        <v>-14674</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -1206,84 +1206,106 @@
         <v>20740</v>
       </c>
       <c r="C7" s="9">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="15">
+        <v>45098</v>
+      </c>
+      <c r="G7" s="16">
+        <v>130000</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>136266</v>
+        <v>6216</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15">
+        <v>45108</v>
+      </c>
+      <c r="B8" s="16">
+        <v>12202</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>136266</v>
+        <v>18418</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45098</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="52">
+        <v>45110</v>
+      </c>
+      <c r="B9" s="13">
+        <v>21945</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>136266</v>
+        <v>40363</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45098</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="52">
+        <v>45110</v>
+      </c>
+      <c r="B10" s="13">
+        <v>113730</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>136266</v>
+        <v>154093</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="52"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="19"/>
+      <c r="A11" s="52">
+        <v>45111</v>
+      </c>
+      <c r="B11" s="17">
+        <v>20295</v>
+      </c>
+      <c r="C11" s="19">
+        <v>150</v>
+      </c>
       <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1295,11 +1317,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1311,11 +1333,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1327,11 +1349,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1343,11 +1365,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1359,11 +1381,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1375,11 +1397,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1391,11 +1413,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1407,11 +1429,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1423,11 +1445,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1439,11 +1461,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45098</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1455,11 +1477,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1471,11 +1493,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1487,11 +1509,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1503,11 +1525,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1519,11 +1541,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1535,11 +1557,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1551,11 +1573,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1567,11 +1589,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1583,11 +1605,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1599,11 +1621,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1637,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1631,11 +1653,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1648,11 +1670,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45098</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1673,7 +1695,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>192156</v>
+        <v>360428</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1681,7 +1703,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>55890</v>
+        <v>185890</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1704,7 +1726,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>136266</v>
+        <v>174538</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>BALANCE IN BILL</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>paytm</t>
+  </si>
+  <si>
+    <t>neft</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1083,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,11 +1167,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-42060</v>
+        <v>-80900</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
@@ -1188,11 +1191,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-14674</v>
+        <v>-53514</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -1219,11 +1222,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>6216</v>
+        <v>-32624</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1235,15 +1238,22 @@
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>45132</v>
+      </c>
+      <c r="G8" s="16">
+        <v>38840</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>18418</v>
+        <v>-20422</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1259,11 +1269,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>40363</v>
+        <v>1523</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1279,11 +1289,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>154093</v>
+        <v>115253</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,11 +1311,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,11 +1327,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1333,11 +1343,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,11 +1359,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,11 +1375,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,11 +1391,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,11 +1407,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,11 +1423,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1439,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,11 +1455,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,11 +1471,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,11 +1487,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,11 +1503,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,11 +1519,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,11 +1535,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,11 +1551,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,11 +1567,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,11 +1583,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,11 +1599,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,11 +1615,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,11 +1631,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1637,11 +1647,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1653,11 +1663,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1670,11 +1680,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1703,7 +1713,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>185890</v>
+        <v>224730</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1726,7 +1736,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>174538</v>
+        <v>135698</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-80900</v>
+        <v>-126797</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
@@ -1191,11 +1191,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-53514</v>
+        <v>-99411</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -1222,11 +1222,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-32624</v>
+        <v>-78521</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1246,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-20422</v>
+        <v>-66319</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
@@ -1265,15 +1265,19 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="15">
+        <v>45136</v>
+      </c>
+      <c r="G9" s="16">
+        <v>45897</v>
+      </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>1523</v>
+        <v>-44374</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1289,11 +1293,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>115253</v>
+        <v>69356</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1311,11 +1315,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1327,11 +1331,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1343,11 +1347,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1359,11 +1363,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1375,11 +1379,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1391,11 +1395,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1407,11 +1411,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1423,11 +1427,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1439,11 +1443,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1455,11 +1459,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1471,11 +1475,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1487,11 +1491,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1503,11 +1507,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1519,11 +1523,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1535,11 +1539,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1551,11 +1555,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1567,11 +1571,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1583,11 +1587,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1599,11 +1603,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1619,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1631,11 +1635,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1647,11 +1651,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1663,11 +1667,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1680,11 +1684,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1713,7 +1717,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>224730</v>
+        <v>270627</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1736,7 +1740,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>135698</v>
+        <v>89801</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>BALANCE IN BILL</t>
   </si>
@@ -54,13 +54,7 @@
     <t>PAYMENT</t>
   </si>
   <si>
-    <t>packing / insurance</t>
-  </si>
-  <si>
-    <t>paytm</t>
-  </si>
-  <si>
-    <t>neft</t>
+    <t>TRANSFER</t>
   </si>
 </sst>
 </file>
@@ -1080,10 +1074,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection sqref="A1:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1099,12 +1093,12 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="E1" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="41" t="s">
         <v>6</v>
       </c>
@@ -1115,7 +1109,7 @@
       <c r="F2" s="42"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" thickBot="1">
+    <row r="3" spans="1:9" ht="16.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1124,7 +1118,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1150,227 +1144,141 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>45066</v>
-      </c>
+    <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A5" s="7"/>
       <c r="B5" s="8">
-        <v>143830</v>
+        <v>118935</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>45090</v>
-      </c>
-      <c r="G5" s="8">
-        <v>50000</v>
-      </c>
-      <c r="H5" s="10">
-        <f>B5:B34+C5-G36</f>
-        <v>-126797</v>
-      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>45087</v>
-      </c>
-      <c r="B6" s="8">
-        <v>27386</v>
-      </c>
+        <v>45154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="49">
-        <v>45090</v>
-      </c>
-      <c r="G6" s="16">
-        <v>5890</v>
-      </c>
-      <c r="H6" s="10">
-        <f>B6+H5+C6</f>
-        <v>-99411</v>
-      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>49</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>45090</v>
-      </c>
-      <c r="B7" s="16">
-        <v>20740</v>
-      </c>
-      <c r="C7" s="9">
-        <v>150</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="15">
-        <v>45098</v>
-      </c>
-      <c r="G7" s="16">
-        <v>130000</v>
-      </c>
-      <c r="H7" s="10">
-        <f>B7+H6+C7</f>
-        <v>-78521</v>
-      </c>
+        <v>45154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="51"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>45108</v>
-      </c>
-      <c r="B8" s="16">
-        <v>12202</v>
-      </c>
+        <v>45154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
-      <c r="F8" s="15">
-        <v>45132</v>
-      </c>
-      <c r="G8" s="16">
-        <v>38840</v>
-      </c>
-      <c r="H8" s="10">
-        <f>H7+B8+C8</f>
-        <v>-66319</v>
-      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="10"/>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>28</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="52">
-        <v>45110</v>
-      </c>
-      <c r="B9" s="13">
-        <v>21945</v>
-      </c>
+        <v>45154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A9" s="52"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15">
-        <v>45136</v>
-      </c>
-      <c r="G9" s="16">
-        <v>45897</v>
-      </c>
-      <c r="H9" s="10">
-        <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-44374</v>
-      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="11">
-        <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52">
-        <v>45110</v>
-      </c>
-      <c r="B10" s="13">
-        <v>113730</v>
-      </c>
+        <f t="shared" ref="I9:I33" ca="1" si="0">TODAY()-A9</f>
+        <v>45154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A10" s="52"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="10">
-        <f t="shared" si="0"/>
-        <v>69356</v>
-      </c>
+      <c r="H10" s="10"/>
       <c r="I10" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="52">
-        <v>45111</v>
-      </c>
-      <c r="B11" s="17">
-        <v>20295</v>
-      </c>
-      <c r="C11" s="19">
-        <v>150</v>
-      </c>
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A11" s="52"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="10">
-        <f t="shared" si="0"/>
-        <v>89801</v>
-      </c>
+      <c r="H11" s="10"/>
       <c r="I11" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="52"/>
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="10">
-        <f t="shared" si="0"/>
-        <v>89801</v>
-      </c>
+      <c r="H12" s="10"/>
       <c r="I12" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="52"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="10">
-        <f t="shared" si="0"/>
-        <v>89801</v>
-      </c>
+      <c r="H13" s="10"/>
       <c r="I13" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="52"/>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="10">
-        <f t="shared" si="0"/>
-        <v>89801</v>
-      </c>
+      <c r="H14" s="10"/>
       <c r="I14" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="52"/>
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
@@ -1378,15 +1286,15 @@
       <c r="F15" s="15"/>
       <c r="G15" s="16"/>
       <c r="H15" s="20">
-        <f t="shared" si="0"/>
-        <v>89801</v>
+        <f t="shared" ref="H15:H34" si="1">B15+H14+C15</f>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="52"/>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
@@ -1394,12 +1302,12 @@
       <c r="F16" s="15"/>
       <c r="G16" s="16"/>
       <c r="H16" s="10">
-        <f t="shared" si="0"/>
-        <v>89801</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,12 +1318,12 @@
       <c r="F17" s="15"/>
       <c r="G17" s="16"/>
       <c r="H17" s="10">
-        <f t="shared" si="0"/>
-        <v>89801</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,12 +1334,12 @@
       <c r="F18" s="15"/>
       <c r="G18" s="16"/>
       <c r="H18" s="10">
-        <f t="shared" si="0"/>
-        <v>89801</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,12 +1350,12 @@
       <c r="F19" s="15"/>
       <c r="G19" s="16"/>
       <c r="H19" s="10">
-        <f t="shared" si="0"/>
-        <v>89801</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,12 +1366,12 @@
       <c r="F20" s="15"/>
       <c r="G20" s="16"/>
       <c r="H20" s="10">
-        <f t="shared" si="0"/>
-        <v>89801</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,12 +1382,12 @@
       <c r="F21" s="15"/>
       <c r="G21" s="16"/>
       <c r="H21" s="10">
-        <f t="shared" si="0"/>
-        <v>89801</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,12 +1398,12 @@
       <c r="F22" s="15"/>
       <c r="G22" s="16"/>
       <c r="H22" s="10">
-        <f t="shared" si="0"/>
-        <v>89801</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,12 +1414,12 @@
       <c r="F23" s="15"/>
       <c r="G23" s="16"/>
       <c r="H23" s="10">
-        <f t="shared" si="0"/>
-        <v>89801</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,12 +1430,12 @@
       <c r="F24" s="15"/>
       <c r="G24" s="16"/>
       <c r="H24" s="10">
-        <f t="shared" si="0"/>
-        <v>89801</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,12 +1446,12 @@
       <c r="F25" s="15"/>
       <c r="G25" s="16"/>
       <c r="H25" s="10">
-        <f t="shared" si="0"/>
-        <v>89801</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,12 +1462,12 @@
       <c r="F26" s="15"/>
       <c r="G26" s="16"/>
       <c r="H26" s="10">
-        <f t="shared" si="0"/>
-        <v>89801</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,12 +1478,12 @@
       <c r="F27" s="15"/>
       <c r="G27" s="16"/>
       <c r="H27" s="10">
-        <f t="shared" si="0"/>
-        <v>89801</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,12 +1494,12 @@
       <c r="F28" s="15"/>
       <c r="G28" s="16"/>
       <c r="H28" s="10">
-        <f t="shared" si="0"/>
-        <v>89801</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,12 +1510,12 @@
       <c r="F29" s="15"/>
       <c r="G29" s="16"/>
       <c r="H29" s="10">
-        <f t="shared" si="0"/>
-        <v>89801</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,12 +1526,12 @@
       <c r="F30" s="15"/>
       <c r="G30" s="16"/>
       <c r="H30" s="10">
-        <f t="shared" si="0"/>
-        <v>89801</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,12 +1542,12 @@
       <c r="F31" s="15"/>
       <c r="G31" s="16"/>
       <c r="H31" s="10">
-        <f t="shared" si="0"/>
-        <v>89801</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1650,12 +1558,12 @@
       <c r="F32" s="15"/>
       <c r="G32" s="16"/>
       <c r="H32" s="10">
-        <f t="shared" si="0"/>
-        <v>89801</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1667,11 +1575,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>89801</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1683,12 +1591,12 @@
       <c r="F34" s="21"/>
       <c r="G34" s="22"/>
       <c r="H34" s="25">
-        <f t="shared" si="0"/>
-        <v>89801</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1709,7 +1617,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>360428</v>
+        <v>118935</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1717,7 +1625,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>270627</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1740,7 +1648,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>89801</v>
+        <v>118935</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I38"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,7 +1158,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1171,7 +1171,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1184,7 +1184,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1197,7 +1197,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1210,7 +1210,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="0">TODAY()-A9</f>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1223,7 +1223,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1236,7 +1236,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,7 +1249,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1262,7 +1262,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1275,7 +1275,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45154</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>BALANCE IN BILL</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>TRANSFER</t>
+  </si>
+  <si>
+    <t>neft</t>
   </si>
 </sst>
 </file>
@@ -1074,10 +1077,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1093,12 +1096,12 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="E1" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="41" t="s">
         <v>6</v>
       </c>
@@ -1109,7 +1112,7 @@
       <c r="F2" s="42"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1">
+    <row r="3" spans="1:10" ht="16.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1118,7 +1121,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1144,24 +1147,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="5" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
-        <v>118935</v>
+        <v>280942</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>45223</v>
+      </c>
+      <c r="G5" s="8">
+        <v>84025</v>
+      </c>
       <c r="H5" s="10"/>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+        <v>45223</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="50"/>
@@ -1171,10 +1181,10 @@
       <c r="H6" s="10"/>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49"/>
       <c r="B7" s="16"/>
       <c r="C7" s="9"/>
@@ -1184,10 +1194,10 @@
       <c r="H7" s="10"/>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="19"/>
@@ -1197,10 +1207,10 @@
       <c r="H8" s="10"/>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="52"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
@@ -1210,10 +1220,10 @@
       <c r="H9" s="10"/>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="0">TODAY()-A9</f>
-        <v>45165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="52"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -1223,10 +1233,10 @@
       <c r="H10" s="10"/>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="52"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
@@ -1236,10 +1246,10 @@
       <c r="H11" s="10"/>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="52"/>
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
@@ -1249,10 +1259,10 @@
       <c r="H12" s="10"/>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="52"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -1262,10 +1272,10 @@
       <c r="H13" s="10"/>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="52"/>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
@@ -1275,10 +1285,10 @@
       <c r="H14" s="10"/>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="52"/>
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
@@ -1291,10 +1301,10 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="52"/>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
@@ -1307,7 +1317,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45165</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1323,7 +1333,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45165</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1339,7 +1349,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45165</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1355,7 +1365,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45165</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1371,7 +1381,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45165</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1387,7 +1397,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45165</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1403,7 +1413,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45165</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1419,7 +1429,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45165</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1435,7 +1445,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45165</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1451,7 +1461,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45165</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1467,7 +1477,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45165</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1483,7 +1493,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45165</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1499,7 +1509,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45165</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1515,7 +1525,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45165</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1531,7 +1541,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45165</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1547,7 +1557,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45165</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1563,7 +1573,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45165</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1579,7 +1589,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45165</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,7 +1606,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45165</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1617,7 +1627,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>118935</v>
+        <v>280942</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1625,7 +1635,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>84025</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1648,7 +1658,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>118935</v>
+        <v>196917</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOOR.xlsx
+++ b/IMPORTANT/NOOR.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1165,7 +1165,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45223</v>
+        <v>45228</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
@@ -1176,12 +1176,16 @@
       <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="16"/>
+      <c r="F6" s="49">
+        <v>45228</v>
+      </c>
+      <c r="G6" s="16">
+        <v>63288</v>
+      </c>
       <c r="H6" s="10"/>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
@@ -1194,7 +1198,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1207,7 +1211,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1220,7 +1224,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="0">TODAY()-A9</f>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,7 +1237,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,7 +1250,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1259,7 +1263,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1272,7 +1276,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1285,7 +1289,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,7 +1305,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,7 +1321,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1337,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,7 +1353,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,7 +1369,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1385,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,7 +1401,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,7 +1417,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1433,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,7 +1449,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,7 +1465,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1481,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1497,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,7 +1513,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1529,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,7 +1545,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1561,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,7 +1577,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,7 +1593,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,7 +1610,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45223</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1635,7 +1639,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>84025</v>
+        <v>147313</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1658,7 +1662,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>196917</v>
+        <v>133629</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
